--- a/natmiOut/OldD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.42625113975846</v>
+        <v>3.669332</v>
       </c>
       <c r="H2">
-        <v>3.42625113975846</v>
+        <v>11.007996</v>
       </c>
       <c r="I2">
-        <v>0.1107914874374055</v>
+        <v>0.1142408795870128</v>
       </c>
       <c r="J2">
-        <v>0.1107914874374055</v>
+        <v>0.1260733720492186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="N2">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="O2">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="P2">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="Q2">
-        <v>24.49492390133863</v>
+        <v>32.61750062415067</v>
       </c>
       <c r="R2">
-        <v>24.49492390133863</v>
+        <v>293.557505617356</v>
       </c>
       <c r="S2">
-        <v>0.08015109103586775</v>
+        <v>0.0652233449928579</v>
       </c>
       <c r="T2">
-        <v>0.08015109103586775</v>
+        <v>0.07197884915894778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.42625113975846</v>
+        <v>3.669332</v>
       </c>
       <c r="H3">
-        <v>3.42625113975846</v>
+        <v>11.007996</v>
       </c>
       <c r="I3">
-        <v>0.1107914874374055</v>
+        <v>0.1142408795870128</v>
       </c>
       <c r="J3">
-        <v>0.1107914874374055</v>
+        <v>0.1260733720492186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="N3">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="O3">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="P3">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="Q3">
-        <v>9.36399203632363</v>
+        <v>24.51314733082533</v>
       </c>
       <c r="R3">
-        <v>9.36399203632363</v>
+        <v>220.618325977428</v>
       </c>
       <c r="S3">
-        <v>0.03064039640153769</v>
+        <v>0.04901753459415491</v>
       </c>
       <c r="T3">
-        <v>0.03064039640153769</v>
+        <v>0.0540945228902708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18069433429702</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H4">
-        <v>1.18069433429702</v>
+        <v>3.820376</v>
       </c>
       <c r="I4">
-        <v>0.03817901145299753</v>
+        <v>0.03964782641573577</v>
       </c>
       <c r="J4">
-        <v>0.03817901145299753</v>
+        <v>0.04375434773194917</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="N4">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="O4">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="P4">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="Q4">
-        <v>8.441009339258773</v>
+        <v>11.32005467339289</v>
       </c>
       <c r="R4">
-        <v>8.441009339258773</v>
+        <v>101.880492060536</v>
       </c>
       <c r="S4">
-        <v>0.0276202575974758</v>
+        <v>0.02263606398934325</v>
       </c>
       <c r="T4">
-        <v>0.0276202575974758</v>
+        <v>0.02498059300116609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18069433429702</v>
+        <v>1.273458666666667</v>
       </c>
       <c r="H5">
-        <v>1.18069433429702</v>
+        <v>3.820376</v>
       </c>
       <c r="I5">
-        <v>0.03817901145299753</v>
+        <v>0.03964782641573577</v>
       </c>
       <c r="J5">
-        <v>0.03817901145299753</v>
+        <v>0.04375434773194917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="N5">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="O5">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="P5">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="Q5">
-        <v>3.22685404329968</v>
+        <v>8.507401324196445</v>
       </c>
       <c r="R5">
-        <v>3.22685404329968</v>
+        <v>76.56661191776801</v>
       </c>
       <c r="S5">
-        <v>0.01055875385552173</v>
+        <v>0.01701176242639252</v>
       </c>
       <c r="T5">
-        <v>0.01055875385552173</v>
+        <v>0.01877375473078308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.90740970717348</v>
+        <v>8.210356666666668</v>
       </c>
       <c r="H6">
-        <v>7.90740970717348</v>
+        <v>24.63107</v>
       </c>
       <c r="I6">
-        <v>0.2556945324493899</v>
+        <v>0.2556210142126945</v>
       </c>
       <c r="J6">
-        <v>0.2556945324493899</v>
+        <v>0.2820969459000845</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="N6">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="O6">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="P6">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="Q6">
-        <v>56.53158251778806</v>
+        <v>72.98366942525222</v>
       </c>
       <c r="R6">
-        <v>56.53158251778806</v>
+        <v>656.85302482727</v>
       </c>
       <c r="S6">
-        <v>0.184979877260908</v>
+        <v>0.1459412572600165</v>
       </c>
       <c r="T6">
-        <v>0.184979877260908</v>
+        <v>0.1610571144969061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.90740970717348</v>
+        <v>8.210356666666668</v>
       </c>
       <c r="H7">
-        <v>7.90740970717348</v>
+        <v>24.63107</v>
       </c>
       <c r="I7">
-        <v>0.2556945324493899</v>
+        <v>0.2556210142126945</v>
       </c>
       <c r="J7">
-        <v>0.2556945324493899</v>
+        <v>0.2820969459000845</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="N7">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="O7">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="P7">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="Q7">
-        <v>21.61106074995442</v>
+        <v>54.84967907200112</v>
       </c>
       <c r="R7">
-        <v>21.61106074995442</v>
+        <v>493.64711164801</v>
       </c>
       <c r="S7">
-        <v>0.07071465518848188</v>
+        <v>0.109679756952678</v>
       </c>
       <c r="T7">
-        <v>0.07071465518848188</v>
+        <v>0.1210398314031784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.36749898789261</v>
+        <v>9.922544666666667</v>
       </c>
       <c r="H8">
-        <v>9.36749898789261</v>
+        <v>29.767634</v>
       </c>
       <c r="I8">
-        <v>0.3029080776928036</v>
+        <v>0.3089282273889152</v>
       </c>
       <c r="J8">
-        <v>0.3029080776928036</v>
+        <v>0.3409254505821921</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="N8">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="O8">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="P8">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="Q8">
-        <v>66.97003970073018</v>
+        <v>88.20368580934155</v>
       </c>
       <c r="R8">
-        <v>66.97003970073018</v>
+        <v>793.833172284074</v>
       </c>
       <c r="S8">
-        <v>0.219136085923319</v>
+        <v>0.1763758509726136</v>
       </c>
       <c r="T8">
-        <v>0.219136085923319</v>
+        <v>0.1946439694840701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.36749898789261</v>
+        <v>9.922544666666667</v>
       </c>
       <c r="H9">
-        <v>9.36749898789261</v>
+        <v>29.767634</v>
       </c>
       <c r="I9">
-        <v>0.3029080776928036</v>
+        <v>0.3089282273889152</v>
       </c>
       <c r="J9">
-        <v>0.3029080776928036</v>
+        <v>0.3409254505821921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="N9">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="O9">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="P9">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="Q9">
-        <v>25.60150506920513</v>
+        <v>66.28803262029578</v>
       </c>
       <c r="R9">
-        <v>25.60150506920513</v>
+        <v>596.592293582662</v>
       </c>
       <c r="S9">
-        <v>0.08377199176948454</v>
+        <v>0.1325523764163015</v>
       </c>
       <c r="T9">
-        <v>0.08377199176948454</v>
+        <v>0.1462814810981221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.04336598097534</v>
+        <v>9.043563500000001</v>
       </c>
       <c r="H10">
-        <v>9.04336598097534</v>
+        <v>18.087127</v>
       </c>
       <c r="I10">
-        <v>0.2924268909674035</v>
+        <v>0.2815620523956416</v>
       </c>
       <c r="J10">
-        <v>0.2924268909674035</v>
+        <v>0.2071498837365554</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.14919102604529</v>
+        <v>8.889220333333332</v>
       </c>
       <c r="N10">
-        <v>7.14919102604529</v>
+        <v>26.667661</v>
       </c>
       <c r="O10">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="P10">
-        <v>0.7234408788053432</v>
+        <v>0.5709282459015017</v>
       </c>
       <c r="Q10">
-        <v>64.65275091643217</v>
+        <v>80.39022854999116</v>
       </c>
       <c r="R10">
-        <v>64.65275091643217</v>
+        <v>482.3413712999471</v>
       </c>
       <c r="S10">
-        <v>0.2115535669877727</v>
+        <v>0.1607517286866704</v>
       </c>
       <c r="T10">
-        <v>0.2115535669877727</v>
+        <v>0.1182677197604116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.04336598097534</v>
+        <v>9.043563500000001</v>
       </c>
       <c r="H11">
-        <v>9.04336598097534</v>
+        <v>18.087127</v>
       </c>
       <c r="I11">
-        <v>0.2924268909674035</v>
+        <v>0.2815620523956416</v>
       </c>
       <c r="J11">
-        <v>0.2924268909674035</v>
+        <v>0.2071498837365554</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.73301391356378</v>
+        <v>6.680547666666667</v>
       </c>
       <c r="N11">
-        <v>2.73301391356378</v>
+        <v>20.041643</v>
       </c>
       <c r="O11">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="P11">
-        <v>0.2765591211946566</v>
+        <v>0.4290717540984982</v>
       </c>
       <c r="Q11">
-        <v>24.71564505145496</v>
+        <v>60.41595703827684</v>
       </c>
       <c r="R11">
-        <v>24.71564505145496</v>
+        <v>362.4957422296611</v>
       </c>
       <c r="S11">
-        <v>0.08087332397963079</v>
+        <v>0.1208103237089712</v>
       </c>
       <c r="T11">
-        <v>0.08087332397963079</v>
+        <v>0.0888821639761438</v>
       </c>
     </row>
   </sheetData>
